--- a/data/Nancagua.xlsx
+++ b/data/Nancagua.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Nancagua.xlsx
+++ b/data/Nancagua.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Nancagua.xlsx
+++ b/data/Nancagua.xlsx
@@ -775,7 +775,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>GRENERGY RENOVABLES PACIFIC LIMITADA</t>
+          <t>GR Quelat SpA</t>
         </is>
       </c>
       <c r="F9" t="n">

--- a/data/Nancagua.xlsx
+++ b/data/Nancagua.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MODIFICACIONES PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DE NANCAGUA</t>
+          <t>Extracción Mecanizada de Áridos en río Tinguiririca, comunas de Nancagua y Santa Cruz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Maquinarias Tierra del Valle Limitada</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2100</v>
+        <v>1600</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/11/2021</t>
+          <t>05/05/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153888910&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159176557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mejoramiento y ampliación Plantel Leñadura Agrícola AASA</t>
+          <t>MODIFICACIONES PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DE NANCAGUA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>AGRÍCOLA AASA LIMITADA</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7500</v>
+        <v>2100</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20/10/2021</t>
+          <t>23/11/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153514457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153888910&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mejoramiento y Ampliación Plantel Leñadura Agrícola AASA</t>
+          <t>Mejoramiento y ampliación Plantel Leñadura Agrícola AASA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>23/09/2021</t>
+          <t>20/10/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153263403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153514457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -591,7 +591,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>23/08/2021</t>
+          <t>23/09/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152969827&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153263403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Nancagua</t>
+          <t>Mejoramiento y Ampliación Plantel Leñadura Agrícola AASA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Parque Solar La Muralla II SpA</t>
+          <t>AGRÍCOLA AASA LIMITADA</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -639,17 +639,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>21/04/2020</t>
+          <t>23/08/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146341897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152969827&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>Parque Fotovoltaico Nancagua</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -674,30 +674,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Parque Solar La Muralla II SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>40</v>
+        <v>7500</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>21/04/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146341897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,21 +731,21 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Rovian</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,30 +770,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>GR Quelat SpA</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>6860</v>
+        <v>42</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>18/07/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132548148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>Planta Fotovoltaica Rovian</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,30 +818,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>GR Quelat SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>37</v>
+        <v>6860</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>18/07/2017</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132548148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DE LA LOCALIDAD DE CUNACO, COMUNA NANCAGUA</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,30 +914,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Nancagua</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1300</v>
+        <v>37</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>19/08/2014</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129523475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PLANTA DE TRATAMIENTO DE PURINES Y MEJORAMIENTO INTEGRAL, PLANTEL LA GLORIA</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DE LA LOCALIDAD DE CUNACO, COMUNA NANCAGUA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>AGRÍCOLA AASA LIMITADA</t>
+          <t>I. Municipalidad de Nancagua</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>20/12/2013</t>
+          <t>19/08/2014</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128947104&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129523475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PLANTA DE TRATAMIENTO DE PURINES PLANTEL LA GLORIA</t>
+          <t>MODIFICACIÓN PLANTA DE TRATAMIENTO DE PURINES Y MEJORAMIENTO INTEGRAL, PLANTEL LA GLORIA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1023,17 +1023,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>11/09/2013</t>
+          <t>20/12/2013</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128559692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128947104&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Tratamiento de Riles</t>
+          <t>MODIFICACIÓN PLANTA DE TRATAMIENTO DE PURINES PLANTEL LA GLORIA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Viña Luis Felipe Edwards Ltda</t>
+          <t>AGRÍCOLA AASA LIMITADA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>370000</v>
+        <v>500</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>10/07/2013</t>
+          <t>11/09/2013</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8016714&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128559692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS, LOCALIDAD DE CUNACO, COMUNA DE NANCAGUA</t>
+          <t>Modificación Sistema de Tratamiento de Riles</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Nancagua</t>
+          <t>Viña Luis Felipe Edwards Ltda</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1400</v>
+        <v>370000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>04/07/2013</t>
+          <t>10/07/2013</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8305343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8016714&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS, LOCALIDAD DE CUNACO, COMUNA DE NANCAGUA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,30 +1154,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>I. Municipalidad de Nancagua</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>250</v>
+        <v>1400</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>04/07/2013</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8305343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes Procesadora de Frutas San Gregorio</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,30 +1202,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>PROCESADORA DE FRUTAS SAN GREGORIO S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>02/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8121533&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS LOCALIDAD DE CUNACO</t>
+          <t>Sistema de Tratamiento de RILes Procesadora de Frutas San Gregorio</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sergio Eduardo Morales Ibarra</t>
+          <t>PROCESADORA DE FRUTAS SAN GREGORIO S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1400</v>
+        <v>80</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>29/04/2013</t>
+          <t>02/05/2013</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8066360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8121533&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS LOCALIDAD DE CUNACO</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,20 +1298,20 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Sergio Eduardo Morales Ibarra</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>250</v>
+        <v>1400</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>29/04/2013</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8066360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1403,11 +1403,11 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Regularización Sistema De Tratamiento Y Disposición En Suelo De Residuos Industriales Líquidos De Bodegas Aldunate Correa Ltda. Regularizacion RILES Aldunate Correa</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,30 +1538,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Regularizacion RILES Aldunate Correa</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>27/09/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6086447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Regularización Sistema De Tratamiento Y Disposición En Suelo De Residuos Industriales Líquidos De Bodegas Aldunate Correa Ltda. Regularizacion RILES Aldunate Correa</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,30 +1586,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Regularizacion RILES Aldunate Correa</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>27/09/2011</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6086447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Regularización Sistema Disposición Residuos Industriales Líquidos al Suelo</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,30 +1634,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Pillán Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>01/09/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5860863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Regularización Sistema Disposición Residuos Industriales Líquidos al Suelo</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,30 +1682,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad Agrícola El Pillán Limitada</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>01/09/2011</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5860863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Optimización sistema de tratamiento y disposición en suelo de RILes Bodega Aldunate Correa Ltda.</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,20 +1730,20 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Bodegas Aldunate Correa Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>15/03/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5444080&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Disposición de Residuos Industriales Líquidos al Suelo</t>
+          <t>Optimización sistema de tratamiento y disposición en suelo de RILes Bodega Aldunate Correa Ltda.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Pillán Limitada</t>
+          <t>Bodegas Aldunate Correa Ltda.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>02/11/2010</t>
+          <t>15/03/2011</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5042751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5444080&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Proyecto "Disposicion de Residuos Industriales Líquidos al Suelo"</t>
+          <t>Disposición de Residuos Industriales Líquidos al Suelo</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1839,17 +1839,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>14/10/2010</t>
+          <t>02/11/2010</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5000576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5042751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Optimización sistema de tratamiento y disposición en suelo de los RILes de Bodega Aldunate Correa Ltda.</t>
+          <t>Proyecto "Disposicion de Residuos Industriales Líquidos al Suelo"</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Jorge Arturo Richasse Martínez</t>
+          <t>Sociedad Agrícola El Pillán Limitada</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>14/10/2010</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4431768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5000576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Optimización Sistema De Tratamiento Y Disposición En Suelo De Los Residuos Industriales Líquidos De Bodega Aldunate Correa Ltda</t>
+          <t>Optimización sistema de tratamiento y disposición en suelo de los RILes de Bodega Aldunate Correa Ltda.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>15/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4362495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4431768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Optimización Sistema De Tratamiento Y Disposición En Suelo De Los Residuos Industriales Líquidos De Bodega Aldunate Correa Ltda</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,30 +1970,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Jorge Arturo Richasse Martínez</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>15/02/2010</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4362495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2031,17 +2031,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Implemetacion de una Planta de Tratamiento de RILes, viña Luis Felipe Edwards (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Viña Luis Felipe Edwards Ltda</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>19/08/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3964454&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
+          <t>Implemetacion de una Planta de Tratamiento de RILes, viña Luis Felipe Edwards (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Viña Luis Felipe Edwards Ltda</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>50</v>
+        <v>800</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>19/08/2009</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3964454&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>DISPOSICIÓN EN SUELO DE RILES GENERADOS POR BODEGA DE VINOS LOS AROMOS DE NANCAGUA S.A. NANCAGUA (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Rafael Joannon Gonzalez</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>8</v>
+        <v>1750</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>05/03/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2750020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DISPOSICION EN SUELO DE RILES GENERADOS POR BODEGA DE VINOS LOS AROMOS DE NANCAGUA S.A. Los Aromos (e-seia)</t>
+          <t>DISPOSICIÓN EN SUELO DE RILES GENERADOS POR BODEGA DE VINOS LOS AROMOS DE NANCAGUA S.A. NANCAGUA (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2367,17 +2367,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>19/02/2008</t>
+          <t>05/03/2008</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2704740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2750020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>centro de almacenamiento para residuos peligrosos (e-seia)</t>
+          <t>DISPOSICION EN SUELO DE RILES GENERADOS POR BODEGA DE VINOS LOS AROMOS DE NANCAGUA S.A. Los Aromos (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Ximena Macarena Pereira Sandoval</t>
+          <t>Rafael Joannon Gonzalez</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>22/10/2007</t>
+          <t>19/02/2008</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2452886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2704740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>centro de almacenamiento para residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,30 +2450,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Ximena Macarena Pereira Sandoval</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>234</v>
+        <v>15</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>22/10/2007</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2452886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DECLARACIÓN DE IMPACTO AMBIENTAL SISTEMA DE TRATAMIENTO DE RILES, BODEGA PALMERAS, VIÑEDOS EMILIANA S.A. (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,30 +2546,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Viñedos Emiliana S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>230</v>
+        <v>10</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>31/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2272103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>MODIFICACIÓN DECLARACIÓN DE IMPACTO AMBIENTAL SISTEMA DE TRATAMIENTO DE RILES, BODEGA PALMERAS, VIÑEDOS EMILIANA S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Viñedos Emiliana S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/07/2007</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2272103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTEL DE CERDOS LEÑADURA (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Agrícola AASA S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>02/05/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133061&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>AMPLIACIÓN PLANTEL DE CERDOS LEÑADURA (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,20 +2690,20 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Agrícola AASA S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>1500</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>02/05/2007</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133061&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2747,21 +2747,21 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Tratamiento de Riles (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,30 +2834,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Viña Luis Felipe Edwards Ltda</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>09/01/2007</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1919000&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Modificación Sistema de Tratamiento de Riles (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Viña Luis Felipe Edwards Ltda</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>09/01/2007</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1919000&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Tratamiento de Riles (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,16 +2930,16 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Viña Luis Felipe Edwards Ltda</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1896904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para disponer Riles al suelo en Viña Santa Eliana S.A. (e-seia)</t>
+          <t>Modificación Sistema de Tratamiento de Riles (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>VIÑA SANTA ELIANA S.A.</t>
+          <t>Viña Luis Felipe Edwards Ltda</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>13/06/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1491450&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1896904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Sistema de Tratamiento para disponer Riles al suelo en Viña Santa Eliana S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,30 +3026,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>VIÑA SANTA ELIANA S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>4000</v>
+        <v>50</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>13/06/2006</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1491450&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3087,17 +3087,17 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento de Riles, Bodega Palmeras, Viñedos Emiliana S.A. (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,30 +3122,30 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Viñedos Emiliana S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>170</v>
+        <v>4000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>03/02/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Sistema de tratamiento de Riles, Bodega Palmeras, Viñedos Emiliana S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,20 +3170,20 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Viñedos Emiliana S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>72</v>
+        <v>170</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>03/02/2006</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Nancagua (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,20 +3218,20 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1150</v>
+        <v>72</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>03/01/2006</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Nancagua (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,30 +3266,30 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>72</v>
+        <v>1150</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>03/01/2006</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL NANCAGUA. LOCALIDADES DE NANCAGUA Y CUNACO (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,20 +3410,20 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ILUSTRE MUNICIPALIDAD NANCAGUA</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>16/08/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=980255&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
+          <t>PLAN REGULADOR COMUNAL NANCAGUA. LOCALIDADES DE NANCAGUA Y CUNACO (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>ILUSTRE MUNICIPALIDAD NANCAGUA</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>16/08/2005</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=980255&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Planta de Neutralización y Depuración de Residuos Industriales Líquidos, Viña Luis Felipe Edwards (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Luis Felipe Edwards Mery</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>17/09/2003</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=153364&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de RILES Viña Luis Felipr Edwards (e-seia)</t>
+          <t>Planta de Neutralización y Depuración de Residuos Industriales Líquidos, Viña Luis Felipe Edwards (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3563,21 +3563,21 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>03/06/2003</t>
+          <t>17/09/2003</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91085&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=153364&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Sistema de Agua Potable Alcantarillado y Disposición de residuos industriales líquidos Viña La Candelaria</t>
+          <t>Planta de Tratamiento de RILES Viña Luis Felipr Edwards (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Candelaria S.A</t>
+          <t>Luis Felipe Edwards Mery</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>24/04/2002</t>
+          <t>03/06/2003</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5407&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91085&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Sistema de Agua Potable Alcantarillado y Disposición de residuos industriales líquidos Viña La Candelaria</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,30 +3650,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Candelaria S.A</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>24/04/2002</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5407&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,43 +3688,91 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
+          <t>Transporte de Residuos Industriales</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>ECOSUR S.A.</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>200</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>25/09/2001</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Rechazado</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Nancagua</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
           <t>103 Viviendas Básicas en la Localidad de Puquillay Bajo</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Sexta</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
         <is>
           <t>Comunidad Villa El esfuerzo</t>
         </is>
       </c>
-      <c r="F70" t="n">
+      <c r="F71" t="n">
         <v>450</v>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>20/02/2001</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3637&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>Nancagua</t>
         </is>

--- a/data/Nancagua.xlsx
+++ b/data/Nancagua.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>05/05/2023</t>
+          <t>12/05/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Nancagua.xlsx
+++ b/data/Nancagua.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J71"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Extracción Mecanizada de Áridos en río Tinguiririca, comunas de Nancagua y Santa Cruz</t>
+          <t>Parque Fotovoltaico Yaquil</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Maquinarias Tierra del Valle Limitada</t>
+          <t>Metis SPA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1600</v>
+        <v>9000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12/05/2023</t>
+          <t>18/07/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159176557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159626091&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MODIFICACIONES PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DE NANCAGUA</t>
+          <t>Extracción Mecanizada de Áridos en río Tinguiririca, comunas de Nancagua y Santa Cruz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Maquinarias Tierra del Valle Limitada</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2100</v>
+        <v>1600</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>23/11/2021</t>
+          <t>12/05/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153888910&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159176557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mejoramiento y ampliación Plantel Leñadura Agrícola AASA</t>
+          <t>MODIFICACIONES PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DE NANCAGUA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>AGRÍCOLA AASA LIMITADA</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>7500</v>
+        <v>2100</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20/10/2021</t>
+          <t>23/11/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153514457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153888910&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mejoramiento y Ampliación Plantel Leñadura Agrícola AASA</t>
+          <t>Mejoramiento y ampliación Plantel Leñadura Agrícola AASA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>23/09/2021</t>
+          <t>20/10/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153263403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153514457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>23/08/2021</t>
+          <t>23/09/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152969827&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153263403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Nancagua</t>
+          <t>Mejoramiento y Ampliación Plantel Leñadura Agrícola AASA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Parque Solar La Muralla II SpA</t>
+          <t>AGRÍCOLA AASA LIMITADA</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -687,17 +687,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>21/04/2020</t>
+          <t>23/08/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146341897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152969827&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>Parque Fotovoltaico Nancagua</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,30 +722,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Parque Solar La Muralla II SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>40</v>
+        <v>7500</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>21/04/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146341897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -779,21 +779,21 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Rovian</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,30 +818,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>GR Quelat SpA</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>6860</v>
+        <v>42</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>18/07/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132548148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>Planta Fotovoltaica Rovian</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>GR Quelat SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>37</v>
+        <v>6860</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>18/07/2017</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132548148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -927,7 +927,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DE LA LOCALIDAD DE CUNACO, COMUNA NANCAGUA</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,30 +962,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Nancagua</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1300</v>
+        <v>37</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>19/08/2014</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129523475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PLANTA DE TRATAMIENTO DE PURINES Y MEJORAMIENTO INTEGRAL, PLANTEL LA GLORIA</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DE LA LOCALIDAD DE CUNACO, COMUNA NANCAGUA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>AGRÍCOLA AASA LIMITADA</t>
+          <t>I. Municipalidad de Nancagua</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>20/12/2013</t>
+          <t>19/08/2014</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128947104&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129523475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PLANTA DE TRATAMIENTO DE PURINES PLANTEL LA GLORIA</t>
+          <t>MODIFICACIÓN PLANTA DE TRATAMIENTO DE PURINES Y MEJORAMIENTO INTEGRAL, PLANTEL LA GLORIA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>11/09/2013</t>
+          <t>20/12/2013</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128559692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128947104&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Tratamiento de Riles</t>
+          <t>MODIFICACIÓN PLANTA DE TRATAMIENTO DE PURINES PLANTEL LA GLORIA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Viña Luis Felipe Edwards Ltda</t>
+          <t>AGRÍCOLA AASA LIMITADA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>370000</v>
+        <v>500</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>10/07/2013</t>
+          <t>11/09/2013</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8016714&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128559692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS, LOCALIDAD DE CUNACO, COMUNA DE NANCAGUA</t>
+          <t>Modificación Sistema de Tratamiento de Riles</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Nancagua</t>
+          <t>Viña Luis Felipe Edwards Ltda</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1400</v>
+        <v>370000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>04/07/2013</t>
+          <t>10/07/2013</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8305343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8016714&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS, LOCALIDAD DE CUNACO, COMUNA DE NANCAGUA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,30 +1202,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>I. Municipalidad de Nancagua</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>250</v>
+        <v>1400</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>04/07/2013</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8305343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes Procesadora de Frutas San Gregorio</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,30 +1250,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>PROCESADORA DE FRUTAS SAN GREGORIO S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>02/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8121533&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS LOCALIDAD DE CUNACO</t>
+          <t>Sistema de Tratamiento de RILes Procesadora de Frutas San Gregorio</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Sergio Eduardo Morales Ibarra</t>
+          <t>PROCESADORA DE FRUTAS SAN GREGORIO S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1400</v>
+        <v>80</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>29/04/2013</t>
+          <t>02/05/2013</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8066360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8121533&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS LOCALIDAD DE CUNACO</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,20 +1346,20 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Sergio Eduardo Morales Ibarra</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>250</v>
+        <v>1400</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>29/04/2013</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8066360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1451,11 +1451,11 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Regularización Sistema De Tratamiento Y Disposición En Suelo De Residuos Industriales Líquidos De Bodegas Aldunate Correa Ltda. Regularizacion RILES Aldunate Correa</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,30 +1586,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Regularizacion RILES Aldunate Correa</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>27/09/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6086447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Regularización Sistema De Tratamiento Y Disposición En Suelo De Residuos Industriales Líquidos De Bodegas Aldunate Correa Ltda. Regularizacion RILES Aldunate Correa</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,30 +1634,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Regularizacion RILES Aldunate Correa</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>27/09/2011</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6086447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Regularización Sistema Disposición Residuos Industriales Líquidos al Suelo</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,30 +1682,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Pillán Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>01/09/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5860863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Regularización Sistema Disposición Residuos Industriales Líquidos al Suelo</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad Agrícola El Pillán Limitada</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>01/09/2011</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5860863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Optimización sistema de tratamiento y disposición en suelo de RILes Bodega Aldunate Correa Ltda.</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,20 +1778,20 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Bodegas Aldunate Correa Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>15/03/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5444080&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Disposición de Residuos Industriales Líquidos al Suelo</t>
+          <t>Optimización sistema de tratamiento y disposición en suelo de RILes Bodega Aldunate Correa Ltda.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Pillán Limitada</t>
+          <t>Bodegas Aldunate Correa Ltda.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>02/11/2010</t>
+          <t>15/03/2011</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5042751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5444080&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Proyecto "Disposicion de Residuos Industriales Líquidos al Suelo"</t>
+          <t>Disposición de Residuos Industriales Líquidos al Suelo</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1887,17 +1887,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>14/10/2010</t>
+          <t>02/11/2010</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5000576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5042751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Optimización sistema de tratamiento y disposición en suelo de los RILes de Bodega Aldunate Correa Ltda.</t>
+          <t>Proyecto "Disposicion de Residuos Industriales Líquidos al Suelo"</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Jorge Arturo Richasse Martínez</t>
+          <t>Sociedad Agrícola El Pillán Limitada</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>14/10/2010</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4431768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5000576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Optimización Sistema De Tratamiento Y Disposición En Suelo De Los Residuos Industriales Líquidos De Bodega Aldunate Correa Ltda</t>
+          <t>Optimización sistema de tratamiento y disposición en suelo de los RILes de Bodega Aldunate Correa Ltda.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>15/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4362495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4431768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Optimización Sistema De Tratamiento Y Disposición En Suelo De Los Residuos Industriales Líquidos De Bodega Aldunate Correa Ltda</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,30 +2018,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Jorge Arturo Richasse Martínez</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>15/02/2010</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4362495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2079,17 +2079,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Implemetacion de una Planta de Tratamiento de RILes, viña Luis Felipe Edwards (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Viña Luis Felipe Edwards Ltda</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>19/08/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3964454&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
+          <t>Implemetacion de una Planta de Tratamiento de RILes, viña Luis Felipe Edwards (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Viña Luis Felipe Edwards Ltda</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>50</v>
+        <v>800</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>19/08/2009</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3964454&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DISPOSICIÓN EN SUELO DE RILES GENERADOS POR BODEGA DE VINOS LOS AROMOS DE NANCAGUA S.A. NANCAGUA (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Rafael Joannon Gonzalez</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>8</v>
+        <v>1750</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>05/03/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2750020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DISPOSICION EN SUELO DE RILES GENERADOS POR BODEGA DE VINOS LOS AROMOS DE NANCAGUA S.A. Los Aromos (e-seia)</t>
+          <t>DISPOSICIÓN EN SUELO DE RILES GENERADOS POR BODEGA DE VINOS LOS AROMOS DE NANCAGUA S.A. NANCAGUA (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2415,17 +2415,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>19/02/2008</t>
+          <t>05/03/2008</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2704740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2750020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>centro de almacenamiento para residuos peligrosos (e-seia)</t>
+          <t>DISPOSICION EN SUELO DE RILES GENERADOS POR BODEGA DE VINOS LOS AROMOS DE NANCAGUA S.A. Los Aromos (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Ximena Macarena Pereira Sandoval</t>
+          <t>Rafael Joannon Gonzalez</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>22/10/2007</t>
+          <t>19/02/2008</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2452886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2704740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>centro de almacenamiento para residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Ximena Macarena Pereira Sandoval</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>234</v>
+        <v>15</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>22/10/2007</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2452886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DECLARACIÓN DE IMPACTO AMBIENTAL SISTEMA DE TRATAMIENTO DE RILES, BODEGA PALMERAS, VIÑEDOS EMILIANA S.A. (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Viñedos Emiliana S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>230</v>
+        <v>10</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>31/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2272103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>MODIFICACIÓN DECLARACIÓN DE IMPACTO AMBIENTAL SISTEMA DE TRATAMIENTO DE RILES, BODEGA PALMERAS, VIÑEDOS EMILIANA S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Viñedos Emiliana S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/07/2007</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2272103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTEL DE CERDOS LEÑADURA (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Agrícola AASA S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>02/05/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133061&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>AMPLIACIÓN PLANTEL DE CERDOS LEÑADURA (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,20 +2738,20 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Agrícola AASA S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>1500</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>02/05/2007</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133061&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2795,21 +2795,21 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Tratamiento de Riles (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Viña Luis Felipe Edwards Ltda</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>09/01/2007</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1919000&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Modificación Sistema de Tratamiento de Riles (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,30 +2930,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Viña Luis Felipe Edwards Ltda</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>09/01/2007</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1919000&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Tratamiento de Riles (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,16 +2978,16 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Viña Luis Felipe Edwards Ltda</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1896904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para disponer Riles al suelo en Viña Santa Eliana S.A. (e-seia)</t>
+          <t>Modificación Sistema de Tratamiento de Riles (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>VIÑA SANTA ELIANA S.A.</t>
+          <t>Viña Luis Felipe Edwards Ltda</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>13/06/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1491450&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1896904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Sistema de Tratamiento para disponer Riles al suelo en Viña Santa Eliana S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,30 +3074,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>VIÑA SANTA ELIANA S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>4000</v>
+        <v>50</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>13/06/2006</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1491450&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3135,17 +3135,17 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento de Riles, Bodega Palmeras, Viñedos Emiliana S.A. (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,30 +3170,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Viñedos Emiliana S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>170</v>
+        <v>4000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>03/02/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Sistema de tratamiento de Riles, Bodega Palmeras, Viñedos Emiliana S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,20 +3218,20 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Viñedos Emiliana S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>72</v>
+        <v>170</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>03/02/2006</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Nancagua (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,20 +3266,20 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1150</v>
+        <v>72</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>03/01/2006</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Nancagua (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,30 +3314,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>72</v>
+        <v>1150</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>03/01/2006</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,15 +3415,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL NANCAGUA. LOCALIDADES DE NANCAGUA Y CUNACO (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,20 +3458,20 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ILUSTRE MUNICIPALIDAD NANCAGUA</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>16/08/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=980255&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
+          <t>PLAN REGULADOR COMUNAL NANCAGUA. LOCALIDADES DE NANCAGUA Y CUNACO (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>ILUSTRE MUNICIPALIDAD NANCAGUA</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>16/08/2005</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=980255&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Planta de Neutralización y Depuración de Residuos Industriales Líquidos, Viña Luis Felipe Edwards (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Luis Felipe Edwards Mery</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>17/09/2003</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=153364&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de RILES Viña Luis Felipr Edwards (e-seia)</t>
+          <t>Planta de Neutralización y Depuración de Residuos Industriales Líquidos, Viña Luis Felipe Edwards (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3611,21 +3611,21 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>03/06/2003</t>
+          <t>17/09/2003</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91085&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=153364&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Sistema de Agua Potable Alcantarillado y Disposición de residuos industriales líquidos Viña La Candelaria</t>
+          <t>Planta de Tratamiento de RILES Viña Luis Felipr Edwards (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Candelaria S.A</t>
+          <t>Luis Felipe Edwards Mery</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>24/04/2002</t>
+          <t>03/06/2003</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5407&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91085&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Sistema de Agua Potable Alcantarillado y Disposición de residuos industriales líquidos Viña La Candelaria</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,30 +3698,30 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Candelaria S.A</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>24/04/2002</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5407&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,43 +3736,91 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
+          <t>Transporte de Residuos Industriales</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>ECOSUR S.A.</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>200</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>25/09/2001</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Rechazado</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Nancagua</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
           <t>103 Viviendas Básicas en la Localidad de Puquillay Bajo</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Sexta</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
         <is>
           <t>Comunidad Villa El esfuerzo</t>
         </is>
       </c>
-      <c r="F71" t="n">
+      <c r="F72" t="n">
         <v>450</v>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>20/02/2001</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3637&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr">
+      <c r="J72" t="inlineStr">
         <is>
           <t>Nancagua</t>
         </is>

--- a/data/Nancagua.xlsx
+++ b/data/Nancagua.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/07/2023</t>
+          <t>24/07/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Nancagua.xlsx
+++ b/data/Nancagua.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Yaquil</t>
+          <t>Extracción Mecanizada de Áridos en río Tinguiririca, comunas de Nancagua y Santa Cruz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Metis SPA</t>
+          <t>Maquinarias Tierra del Valle Limitada</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>9000</v>
+        <v>1800</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/07/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159626091&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160724419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Extracción Mecanizada de Áridos en río Tinguiririca, comunas de Nancagua y Santa Cruz</t>
+          <t>Parque Fotovoltaico Yaquil</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Maquinarias Tierra del Valle Limitada</t>
+          <t>Metis SPA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1600</v>
+        <v>9000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>12/05/2023</t>
+          <t>24/07/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159176557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159626091&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MODIFICACIONES PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DE NANCAGUA</t>
+          <t>Extracción Mecanizada de Áridos en río Tinguiririca, comunas de Nancagua y Santa Cruz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Maquinarias Tierra del Valle Limitada</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2100</v>
+        <v>1600</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>23/11/2021</t>
+          <t>12/05/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153888910&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159176557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mejoramiento y ampliación Plantel Leñadura Agrícola AASA</t>
+          <t>MODIFICACIONES PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DE NANCAGUA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>AGRÍCOLA AASA LIMITADA</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7500</v>
+        <v>2100</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>20/10/2021</t>
+          <t>23/11/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153514457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153888910&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mejoramiento y Ampliación Plantel Leñadura Agrícola AASA</t>
+          <t>Mejoramiento y ampliación Plantel Leñadura Agrícola AASA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -639,17 +639,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>23/09/2021</t>
+          <t>20/10/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153263403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153514457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>23/08/2021</t>
+          <t>23/09/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152969827&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153263403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Nancagua</t>
+          <t>Mejoramiento y Ampliación Plantel Leñadura Agrícola AASA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Parque Solar La Muralla II SpA</t>
+          <t>AGRÍCOLA AASA LIMITADA</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -735,17 +735,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>21/04/2020</t>
+          <t>23/08/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146341897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152969827&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>Parque Fotovoltaico Nancagua</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,30 +770,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Parque Solar La Muralla II SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>40</v>
+        <v>7500</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>21/04/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146341897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -827,21 +827,21 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Rovian</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>GR Quelat SpA</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>6860</v>
+        <v>42</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>18/07/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132548148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>Planta Fotovoltaica Rovian</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,30 +914,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>GR Quelat SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>37</v>
+        <v>6860</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>18/07/2017</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132548148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DE LA LOCALIDAD DE CUNACO, COMUNA NANCAGUA</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,30 +1010,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Nancagua</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1300</v>
+        <v>37</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>19/08/2014</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129523475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PLANTA DE TRATAMIENTO DE PURINES Y MEJORAMIENTO INTEGRAL, PLANTEL LA GLORIA</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DE LA LOCALIDAD DE CUNACO, COMUNA NANCAGUA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>AGRÍCOLA AASA LIMITADA</t>
+          <t>I. Municipalidad de Nancagua</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>20/12/2013</t>
+          <t>19/08/2014</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128947104&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129523475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PLANTA DE TRATAMIENTO DE PURINES PLANTEL LA GLORIA</t>
+          <t>MODIFICACIÓN PLANTA DE TRATAMIENTO DE PURINES Y MEJORAMIENTO INTEGRAL, PLANTEL LA GLORIA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1119,17 +1119,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>11/09/2013</t>
+          <t>20/12/2013</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128559692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128947104&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Tratamiento de Riles</t>
+          <t>MODIFICACIÓN PLANTA DE TRATAMIENTO DE PURINES PLANTEL LA GLORIA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Viña Luis Felipe Edwards Ltda</t>
+          <t>AGRÍCOLA AASA LIMITADA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>370000</v>
+        <v>500</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>10/07/2013</t>
+          <t>11/09/2013</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8016714&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128559692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS, LOCALIDAD DE CUNACO, COMUNA DE NANCAGUA</t>
+          <t>Modificación Sistema de Tratamiento de Riles</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Nancagua</t>
+          <t>Viña Luis Felipe Edwards Ltda</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1400</v>
+        <v>370000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>04/07/2013</t>
+          <t>10/07/2013</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8305343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8016714&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS, LOCALIDAD DE CUNACO, COMUNA DE NANCAGUA</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,30 +1250,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>I. Municipalidad de Nancagua</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>250</v>
+        <v>1400</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>04/07/2013</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8305343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes Procesadora de Frutas San Gregorio</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,30 +1298,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>PROCESADORA DE FRUTAS SAN GREGORIO S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>02/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8121533&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS LOCALIDAD DE CUNACO</t>
+          <t>Sistema de Tratamiento de RILes Procesadora de Frutas San Gregorio</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sergio Eduardo Morales Ibarra</t>
+          <t>PROCESADORA DE FRUTAS SAN GREGORIO S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1400</v>
+        <v>80</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>29/04/2013</t>
+          <t>02/05/2013</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8066360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8121533&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS LOCALIDAD DE CUNACO</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,20 +1394,20 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Sergio Eduardo Morales Ibarra</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>250</v>
+        <v>1400</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>29/04/2013</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8066360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1499,11 +1499,11 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Regularización Sistema De Tratamiento Y Disposición En Suelo De Residuos Industriales Líquidos De Bodegas Aldunate Correa Ltda. Regularizacion RILES Aldunate Correa</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,30 +1634,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Regularizacion RILES Aldunate Correa</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>27/09/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6086447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Regularización Sistema De Tratamiento Y Disposición En Suelo De Residuos Industriales Líquidos De Bodegas Aldunate Correa Ltda. Regularizacion RILES Aldunate Correa</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,30 +1682,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Regularizacion RILES Aldunate Correa</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>27/09/2011</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6086447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Regularización Sistema Disposición Residuos Industriales Líquidos al Suelo</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Pillán Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>01/09/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5860863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Regularización Sistema Disposición Residuos Industriales Líquidos al Suelo</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad Agrícola El Pillán Limitada</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>01/09/2011</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5860863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Optimización sistema de tratamiento y disposición en suelo de RILes Bodega Aldunate Correa Ltda.</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,20 +1826,20 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Bodegas Aldunate Correa Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>15/03/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5444080&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Disposición de Residuos Industriales Líquidos al Suelo</t>
+          <t>Optimización sistema de tratamiento y disposición en suelo de RILes Bodega Aldunate Correa Ltda.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Pillán Limitada</t>
+          <t>Bodegas Aldunate Correa Ltda.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>02/11/2010</t>
+          <t>15/03/2011</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5042751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5444080&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Proyecto "Disposicion de Residuos Industriales Líquidos al Suelo"</t>
+          <t>Disposición de Residuos Industriales Líquidos al Suelo</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>14/10/2010</t>
+          <t>02/11/2010</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5000576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5042751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Optimización sistema de tratamiento y disposición en suelo de los RILes de Bodega Aldunate Correa Ltda.</t>
+          <t>Proyecto "Disposicion de Residuos Industriales Líquidos al Suelo"</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Jorge Arturo Richasse Martínez</t>
+          <t>Sociedad Agrícola El Pillán Limitada</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>14/10/2010</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4431768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5000576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Optimización Sistema De Tratamiento Y Disposición En Suelo De Los Residuos Industriales Líquidos De Bodega Aldunate Correa Ltda</t>
+          <t>Optimización sistema de tratamiento y disposición en suelo de los RILes de Bodega Aldunate Correa Ltda.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>15/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4362495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4431768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Optimización Sistema De Tratamiento Y Disposición En Suelo De Los Residuos Industriales Líquidos De Bodega Aldunate Correa Ltda</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Jorge Arturo Richasse Martínez</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>15/02/2010</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4362495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2127,17 +2127,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Implemetacion de una Planta de Tratamiento de RILes, viña Luis Felipe Edwards (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Viña Luis Felipe Edwards Ltda</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>19/08/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3964454&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
+          <t>Implemetacion de una Planta de Tratamiento de RILes, viña Luis Felipe Edwards (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Viña Luis Felipe Edwards Ltda</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>50</v>
+        <v>800</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>19/08/2009</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3964454&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DISPOSICIÓN EN SUELO DE RILES GENERADOS POR BODEGA DE VINOS LOS AROMOS DE NANCAGUA S.A. NANCAGUA (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Rafael Joannon Gonzalez</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>8</v>
+        <v>1750</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>05/03/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2750020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DISPOSICION EN SUELO DE RILES GENERADOS POR BODEGA DE VINOS LOS AROMOS DE NANCAGUA S.A. Los Aromos (e-seia)</t>
+          <t>DISPOSICIÓN EN SUELO DE RILES GENERADOS POR BODEGA DE VINOS LOS AROMOS DE NANCAGUA S.A. NANCAGUA (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2463,17 +2463,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>19/02/2008</t>
+          <t>05/03/2008</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2704740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2750020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>centro de almacenamiento para residuos peligrosos (e-seia)</t>
+          <t>DISPOSICION EN SUELO DE RILES GENERADOS POR BODEGA DE VINOS LOS AROMOS DE NANCAGUA S.A. Los Aromos (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Ximena Macarena Pereira Sandoval</t>
+          <t>Rafael Joannon Gonzalez</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>22/10/2007</t>
+          <t>19/02/2008</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2452886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2704740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>centro de almacenamiento para residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,30 +2546,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Ximena Macarena Pereira Sandoval</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>234</v>
+        <v>15</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>22/10/2007</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2452886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DECLARACIÓN DE IMPACTO AMBIENTAL SISTEMA DE TRATAMIENTO DE RILES, BODEGA PALMERAS, VIÑEDOS EMILIANA S.A. (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Viñedos Emiliana S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>230</v>
+        <v>10</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>31/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2272103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>MODIFICACIÓN DECLARACIÓN DE IMPACTO AMBIENTAL SISTEMA DE TRATAMIENTO DE RILES, BODEGA PALMERAS, VIÑEDOS EMILIANA S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Viñedos Emiliana S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/07/2007</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2272103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTEL DE CERDOS LEÑADURA (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,30 +2738,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Agrícola AASA S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>02/05/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133061&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>AMPLIACIÓN PLANTEL DE CERDOS LEÑADURA (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,20 +2786,20 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Agrícola AASA S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>1500</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>02/05/2007</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133061&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2843,21 +2843,21 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Tratamiento de Riles (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,30 +2930,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Viña Luis Felipe Edwards Ltda</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>09/01/2007</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1919000&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Modificación Sistema de Tratamiento de Riles (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,30 +2978,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Viña Luis Felipe Edwards Ltda</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>09/01/2007</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1919000&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Tratamiento de Riles (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,16 +3026,16 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Viña Luis Felipe Edwards Ltda</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1896904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para disponer Riles al suelo en Viña Santa Eliana S.A. (e-seia)</t>
+          <t>Modificación Sistema de Tratamiento de Riles (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>VIÑA SANTA ELIANA S.A.</t>
+          <t>Viña Luis Felipe Edwards Ltda</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>13/06/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1491450&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1896904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Sistema de Tratamiento para disponer Riles al suelo en Viña Santa Eliana S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,30 +3122,30 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>VIÑA SANTA ELIANA S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>4000</v>
+        <v>50</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>13/06/2006</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1491450&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3183,17 +3183,17 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento de Riles, Bodega Palmeras, Viñedos Emiliana S.A. (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,30 +3218,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Viñedos Emiliana S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>170</v>
+        <v>4000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>03/02/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Sistema de tratamiento de Riles, Bodega Palmeras, Viñedos Emiliana S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,20 +3266,20 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Viñedos Emiliana S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>72</v>
+        <v>170</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>03/02/2006</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Nancagua (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,20 +3314,20 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1150</v>
+        <v>72</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>03/01/2006</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Nancagua (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>72</v>
+        <v>1150</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>03/01/2006</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL NANCAGUA. LOCALIDADES DE NANCAGUA Y CUNACO (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,20 +3506,20 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ILUSTRE MUNICIPALIDAD NANCAGUA</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>16/08/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=980255&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
+          <t>PLAN REGULADOR COMUNAL NANCAGUA. LOCALIDADES DE NANCAGUA Y CUNACO (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>ILUSTRE MUNICIPALIDAD NANCAGUA</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>16/08/2005</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=980255&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Planta de Neutralización y Depuración de Residuos Industriales Líquidos, Viña Luis Felipe Edwards (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Luis Felipe Edwards Mery</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>17/09/2003</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=153364&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de RILES Viña Luis Felipr Edwards (e-seia)</t>
+          <t>Planta de Neutralización y Depuración de Residuos Industriales Líquidos, Viña Luis Felipe Edwards (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3659,21 +3659,21 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>03/06/2003</t>
+          <t>17/09/2003</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91085&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=153364&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Sistema de Agua Potable Alcantarillado y Disposición de residuos industriales líquidos Viña La Candelaria</t>
+          <t>Planta de Tratamiento de RILES Viña Luis Felipr Edwards (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Candelaria S.A</t>
+          <t>Luis Felipe Edwards Mery</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>24/04/2002</t>
+          <t>03/06/2003</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5407&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91085&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Sistema de Agua Potable Alcantarillado y Disposición de residuos industriales líquidos Viña La Candelaria</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,30 +3746,30 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Candelaria S.A</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>24/04/2002</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5407&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,43 +3784,91 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
+          <t>Transporte de Residuos Industriales</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>ECOSUR S.A.</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>200</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>25/09/2001</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Rechazado</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Nancagua</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
           <t>103 Viviendas Básicas en la Localidad de Puquillay Bajo</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Sexta</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
         <is>
           <t>Comunidad Villa El esfuerzo</t>
         </is>
       </c>
-      <c r="F72" t="n">
+      <c r="F73" t="n">
         <v>450</v>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>20/02/2001</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3637&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J72" t="inlineStr">
+      <c r="J73" t="inlineStr">
         <is>
           <t>Nancagua</t>
         </is>

--- a/data/Nancagua.xlsx
+++ b/data/Nancagua.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
